--- a/Not_needed/Flaner/[CP] Portraits for Vendors/assets/Credits.xlsx
+++ b/Not_needed/Flaner/[CP] Portraits for Vendors/assets/Credits.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fauzan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Games\Steam\steamapps\common\Stardew Valley\Mods\Stardrop Installed Mods\Additions\[CP] Portraits for Vendors\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9450DFCE-2F7E-40C5-8227-BE310F9DDA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A48AD0-2502-4098-85FE-24A6F1078066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7F6BED8-1665-4926-9CDA-29768AB6D237}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$7:$E$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$7:$E$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="64">
   <si>
     <t>Asset from</t>
   </si>
@@ -178,6 +178,48 @@
   </si>
   <si>
     <t>The "Asset from" column indicates the originating mod of an asset in the form used by this mod, while the "Original artist" column indicates the creator of the asset in its initial form.</t>
+  </si>
+  <si>
+    <t>HatMouse_Bow</t>
+  </si>
+  <si>
+    <t>HatMouse_Beanie</t>
+  </si>
+  <si>
+    <t>HatMouse_Dipper</t>
+  </si>
+  <si>
+    <t>HatMouse_Flower</t>
+  </si>
+  <si>
+    <t>HatMouse_Goggles</t>
+  </si>
+  <si>
+    <t>HatMouse_Hamster</t>
+  </si>
+  <si>
+    <t>HatMouse_Headband</t>
+  </si>
+  <si>
+    <t>HatMouse_Link</t>
+  </si>
+  <si>
+    <t>HatMouse_Marlon</t>
+  </si>
+  <si>
+    <t>HatMouse_Post</t>
+  </si>
+  <si>
+    <t>HatMouse_Red</t>
+  </si>
+  <si>
+    <t>HatMouse_Sailor</t>
+  </si>
+  <si>
+    <t>HatMouse_Strawhat</t>
+  </si>
+  <si>
+    <t>HatMouse_Wizard</t>
   </si>
 </sst>
 </file>
@@ -417,62 +459,62 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -789,466 +831,634 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A337C04-59F4-452C-921B-80F95ACDEDD1}">
-  <dimension ref="B1:F39"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="16" width="9.140625" hidden="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="17"/>
+      <c r="C8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="7"/>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="7"/>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="7"/>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
+      <c r="C16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+      <c r="C29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C31" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E31" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="C32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+      <c r="E32" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+      <c r="C34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C35" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D35" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C36" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+      <c r="C37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+      <c r="C38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D39" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
+      <c r="C40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
+      <c r="C41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
+      <c r="C42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="9" t="s">
+      <c r="C43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
+      <c r="E43" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
+      <c r="C44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
+      <c r="C45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="9" t="s">
+      <c r="C46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
+      <c r="E46" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
+      <c r="C47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="s">
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D49" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C50" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D50" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C51" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D51" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="11" t="s">
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="13" t="s">
+      <c r="C52" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25"/>
+      <c r="E52" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="B7:E38" xr:uid="{4A337C04-59F4-452C-921B-80F95ACDEDD1}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:E38">
-      <sortCondition ref="B7:B38"/>
+  <autoFilter ref="B7:E52" xr:uid="{4A337C04-59F4-452C-921B-80F95ACDEDD1}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:E52">
+      <sortCondition ref="B7:B52"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:B40">
-    <sortCondition ref="B8:B40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:B54">
+    <sortCondition ref="B8:B54"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
@@ -1256,35 +1466,40 @@
     <mergeCell ref="B3:E3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C34" r:id="rId1" display="https://www.nexusmods.com/stardewvalley/mods/3753" xr:uid="{345BDB16-9D9C-4161-AA77-6B3C5843E5CD}"/>
-    <hyperlink ref="C35" r:id="rId2" display="https://www.nexusmods.com/stardewvalley/mods/3753" xr:uid="{F4F96E07-7351-4B47-86FD-89CF75D334EA}"/>
-    <hyperlink ref="C36" r:id="rId3" display="https://www.nexusmods.com/stardewvalley/mods/3753" xr:uid="{95E22557-5EF6-40F1-83E5-0ED908273C51}"/>
+    <hyperlink ref="C48" r:id="rId1" display="https://www.nexusmods.com/stardewvalley/mods/3753" xr:uid="{345BDB16-9D9C-4161-AA77-6B3C5843E5CD}"/>
+    <hyperlink ref="C49" r:id="rId2" display="https://www.nexusmods.com/stardewvalley/mods/3753" xr:uid="{F4F96E07-7351-4B47-86FD-89CF75D334EA}"/>
+    <hyperlink ref="C50" r:id="rId3" display="https://www.nexusmods.com/stardewvalley/mods/3753" xr:uid="{95E22557-5EF6-40F1-83E5-0ED908273C51}"/>
     <hyperlink ref="D11" r:id="rId4" display="https://twitter.com/AndiasRakhman" xr:uid="{E8A8C852-C38B-4573-9381-8E05C2D55CF5}"/>
     <hyperlink ref="D12" r:id="rId5" display="https://twitter.com/AndiasRakhman" xr:uid="{D80CC328-AFF6-4F18-BA14-7C5B55CA772C}"/>
-    <hyperlink ref="D22" r:id="rId6" display="https://www.nexusmods.com/stardewvalley/users/68088657" xr:uid="{59D88D3C-69C2-469C-B58A-B17DBABA4BCA}"/>
-    <hyperlink ref="C22" r:id="rId7" display="https://www.nexusmods.com/stardewvalley/mods/6398" xr:uid="{7D3AD4D0-14D7-411F-8372-B65B457E91D1}"/>
-    <hyperlink ref="D37" r:id="rId8" display="https://www.nexusmods.com/stardewvalley/users/77325553" xr:uid="{FF583FAE-CF21-4A24-AF69-C3B9A5679743}"/>
-    <hyperlink ref="D16" r:id="rId9" display="https://www.nexusmods.com/stardewvalley/users/2679113" xr:uid="{68D94DAE-D159-4CB9-B3FE-58429AC8E7CE}"/>
-    <hyperlink ref="D19" r:id="rId10" display="https://www.nexusmods.com/stardewvalley/users/2679113" xr:uid="{17EF873F-D09D-4A8B-A34D-A0D2CD34FC3E}"/>
-    <hyperlink ref="D25" r:id="rId11" display="https://www.nexusmods.com/stardewvalley/users/2679113" xr:uid="{741BC9AA-8152-4572-9229-8B7ACD5B4245}"/>
-    <hyperlink ref="D34" r:id="rId12" display="https://www.nexusmods.com/stardewvalley/users/2679113" xr:uid="{C47A5B35-6470-4D17-BC94-6FEEC59B7531}"/>
-    <hyperlink ref="D35" r:id="rId13" display="https://www.nexusmods.com/stardewvalley/users/2679113" xr:uid="{9663B624-709D-454E-BD48-0EB227AC5F44}"/>
-    <hyperlink ref="D36" r:id="rId14" display="https://www.nexusmods.com/stardewvalley/users/2679113" xr:uid="{0BA4259C-5F6B-4EED-9222-575FED178246}"/>
-    <hyperlink ref="D29" r:id="rId15" display="https://www.nexusmods.com/stardewvalley/users/2679113" xr:uid="{03EE9D40-E951-4B20-AB8D-DFFC7044DBBB}"/>
-    <hyperlink ref="C37" r:id="rId16" display="https://www.nexusmods.com/stardewvalley/mods/14916" xr:uid="{8D435C66-17F3-4B7F-93A6-FFB0691B74C7}"/>
-    <hyperlink ref="E17" r:id="rId17" display="https://www.nexusmods.com/stardewvalley/users/2679113" xr:uid="{1A0AB9C2-2DEC-4AB4-BB2E-4C917F9B7285}"/>
-    <hyperlink ref="D21" r:id="rId18" display="https://www.nexusmods.com/stardewvalley/users/2679113" xr:uid="{5F681CDC-830C-43B4-9E92-77B7A876D199}"/>
-    <hyperlink ref="D38" r:id="rId19" xr:uid="{770B42DE-1C0F-4E30-A07F-FA0DDBC524E2}"/>
-    <hyperlink ref="D32" r:id="rId20" xr:uid="{D8E0868B-5707-484D-8C97-F18D90F8EC64}"/>
-    <hyperlink ref="D18" r:id="rId21" xr:uid="{E09E9998-6611-4086-A67E-FE0A99F68867}"/>
-    <hyperlink ref="C17" r:id="rId22" xr:uid="{484D9DA1-3F15-41F4-B689-6E58AF3D98CC}"/>
-    <hyperlink ref="C25" r:id="rId23" display="https://www.nexusmods.com/stardewvalley/mods/3753" xr:uid="{8A7D587D-1B2A-485D-A977-5BFE47B82381}"/>
-    <hyperlink ref="C21" r:id="rId24" display="https://www.nexusmods.com/stardewvalley/mods/3753" xr:uid="{B8D74AD2-CFFA-4A91-BCE6-7410CFC11512}"/>
-    <hyperlink ref="C19" r:id="rId25" display="https://www.nexusmods.com/stardewvalley/mods/3753" xr:uid="{5F151DE8-9E97-4697-BBD0-07486571E738}"/>
-    <hyperlink ref="C16" r:id="rId26" display="https://www.nexusmods.com/stardewvalley/mods/3753" xr:uid="{4E6B20C5-25F0-4BC4-9EC8-E522E1F2F928}"/>
-    <hyperlink ref="D17" r:id="rId27" xr:uid="{42965579-B521-4BFF-878F-F024FC866009}"/>
+    <hyperlink ref="D36" r:id="rId6" display="https://www.nexusmods.com/stardewvalley/users/68088657" xr:uid="{59D88D3C-69C2-469C-B58A-B17DBABA4BCA}"/>
+    <hyperlink ref="C36" r:id="rId7" display="https://www.nexusmods.com/stardewvalley/mods/6398" xr:uid="{7D3AD4D0-14D7-411F-8372-B65B457E91D1}"/>
+    <hyperlink ref="D51" r:id="rId8" display="https://www.nexusmods.com/stardewvalley/users/77325553" xr:uid="{FF583FAE-CF21-4A24-AF69-C3B9A5679743}"/>
+    <hyperlink ref="D30" r:id="rId9" display="https://www.nexusmods.com/stardewvalley/users/2679113" xr:uid="{68D94DAE-D159-4CB9-B3FE-58429AC8E7CE}"/>
+    <hyperlink ref="D33" r:id="rId10" display="https://www.nexusmods.com/stardewvalley/users/2679113" xr:uid="{17EF873F-D09D-4A8B-A34D-A0D2CD34FC3E}"/>
+    <hyperlink ref="D39" r:id="rId11" display="https://www.nexusmods.com/stardewvalley/users/2679113" xr:uid="{741BC9AA-8152-4572-9229-8B7ACD5B4245}"/>
+    <hyperlink ref="D48" r:id="rId12" display="https://www.nexusmods.com/stardewvalley/users/2679113" xr:uid="{C47A5B35-6470-4D17-BC94-6FEEC59B7531}"/>
+    <hyperlink ref="D49" r:id="rId13" display="https://www.nexusmods.com/stardewvalley/users/2679113" xr:uid="{9663B624-709D-454E-BD48-0EB227AC5F44}"/>
+    <hyperlink ref="D50" r:id="rId14" display="https://www.nexusmods.com/stardewvalley/users/2679113" xr:uid="{0BA4259C-5F6B-4EED-9222-575FED178246}"/>
+    <hyperlink ref="D43" r:id="rId15" display="https://www.nexusmods.com/stardewvalley/users/2679113" xr:uid="{03EE9D40-E951-4B20-AB8D-DFFC7044DBBB}"/>
+    <hyperlink ref="C51" r:id="rId16" display="https://www.nexusmods.com/stardewvalley/mods/14916" xr:uid="{8D435C66-17F3-4B7F-93A6-FFB0691B74C7}"/>
+    <hyperlink ref="E31" r:id="rId17" display="https://www.nexusmods.com/stardewvalley/users/2679113" xr:uid="{1A0AB9C2-2DEC-4AB4-BB2E-4C917F9B7285}"/>
+    <hyperlink ref="D35" r:id="rId18" display="https://www.nexusmods.com/stardewvalley/users/2679113" xr:uid="{5F681CDC-830C-43B4-9E92-77B7A876D199}"/>
+    <hyperlink ref="D52" r:id="rId19" xr:uid="{770B42DE-1C0F-4E30-A07F-FA0DDBC524E2}"/>
+    <hyperlink ref="D46" r:id="rId20" xr:uid="{D8E0868B-5707-484D-8C97-F18D90F8EC64}"/>
+    <hyperlink ref="D32" r:id="rId21" xr:uid="{E09E9998-6611-4086-A67E-FE0A99F68867}"/>
+    <hyperlink ref="C31" r:id="rId22" xr:uid="{484D9DA1-3F15-41F4-B689-6E58AF3D98CC}"/>
+    <hyperlink ref="C39" r:id="rId23" display="https://www.nexusmods.com/stardewvalley/mods/3753" xr:uid="{8A7D587D-1B2A-485D-A977-5BFE47B82381}"/>
+    <hyperlink ref="C35" r:id="rId24" display="https://www.nexusmods.com/stardewvalley/mods/3753" xr:uid="{B8D74AD2-CFFA-4A91-BCE6-7410CFC11512}"/>
+    <hyperlink ref="C33" r:id="rId25" display="https://www.nexusmods.com/stardewvalley/mods/3753" xr:uid="{5F151DE8-9E97-4697-BBD0-07486571E738}"/>
+    <hyperlink ref="C30" r:id="rId26" display="https://www.nexusmods.com/stardewvalley/mods/3753" xr:uid="{4E6B20C5-25F0-4BC4-9EC8-E522E1F2F928}"/>
+    <hyperlink ref="D31" r:id="rId27" xr:uid="{42965579-B521-4BFF-878F-F024FC866009}"/>
+    <hyperlink ref="D19" r:id="rId28" display="https://twitter.com/AndiasRakhman" xr:uid="{E17B9340-DAA4-4E60-BF80-8B85D57F81E7}"/>
+    <hyperlink ref="D21" r:id="rId29" display="https://twitter.com/AndiasRakhman" xr:uid="{F911FD76-C29D-443A-B31A-6197E2EA8EC5}"/>
+    <hyperlink ref="D22" r:id="rId30" display="https://twitter.com/AndiasRakhman" xr:uid="{A93C98E3-B69A-4DC3-9B6F-282FE7D11D41}"/>
+    <hyperlink ref="D24" r:id="rId31" display="https://twitter.com/AndiasRakhman" xr:uid="{90281A66-9AAC-4340-9350-F56241842143}"/>
+    <hyperlink ref="D26" r:id="rId32" display="https://twitter.com/AndiasRakhman" xr:uid="{9E739C94-8AC2-4E3A-BBFC-DF239B0DFABD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId28"/>
+  <pageSetup orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
--- a/Not_needed/Flaner/[CP] Portraits for Vendors/assets/Credits.xlsx
+++ b/Not_needed/Flaner/[CP] Portraits for Vendors/assets/Credits.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Games\Steam\steamapps\common\Stardew Valley\Mods\Stardrop Installed Mods\Additions\[CP] Portraits for Vendors\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A48AD0-2502-4098-85FE-24A6F1078066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34A560D-C552-49B2-AAC1-296416581F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7F6BED8-1665-4926-9CDA-29768AB6D237}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7F6BED8-1665-4926-9CDA-29768AB6D237}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$7:$E$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$7:$E$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="68">
   <si>
     <t>Asset from</t>
   </si>
@@ -105,9 +105,6 @@
     <t>JojaCashier_Shane</t>
   </si>
   <si>
-    <t>JojaCashier_Shift</t>
-  </si>
-  <si>
     <t>MagicBoat_Default</t>
   </si>
   <si>
@@ -120,18 +117,9 @@
     <t>MovieConcessionCC_Kevin</t>
   </si>
   <si>
-    <t>MovieConcessionCC_Shift</t>
-  </si>
-  <si>
-    <t>MovieConcessionCC_SVE</t>
-  </si>
-  <si>
     <t>MovieConcessionJoja_Default</t>
   </si>
   <si>
-    <t>MovieConcessionJoja_Shift</t>
-  </si>
-  <si>
     <t>MovieTicketCC_Default</t>
   </si>
   <si>
@@ -159,9 +147,6 @@
     <t>TravelerIce_Default</t>
   </si>
   <si>
-    <t>VolcanoDwarf_Alter</t>
-  </si>
-  <si>
     <t>VolcanoDwarf_Default</t>
   </si>
   <si>
@@ -171,9 +156,6 @@
     <t>FellowClown</t>
   </si>
   <si>
-    <t>PORTRAITS FOR VENDORS CREDIT</t>
-  </si>
-  <si>
     <t>This mod also features portraits from various other mods, drawn by various artists. Below is the credits for them all.</t>
   </si>
   <si>
@@ -220,6 +202,36 @@
   </si>
   <si>
     <t>HatMouse_Wizard</t>
+  </si>
+  <si>
+    <t>JojaCashier_Naufal</t>
+  </si>
+  <si>
+    <t>JojaCashier_Daena</t>
+  </si>
+  <si>
+    <t>MovieConcessionCC_Daena</t>
+  </si>
+  <si>
+    <t>MovieConcessionCC_Naufal</t>
+  </si>
+  <si>
+    <t>MovieConcessionJoja_Naufal</t>
+  </si>
+  <si>
+    <t>MovieConcessionJoja_Daena</t>
+  </si>
+  <si>
+    <t>MovieTicketCC_Naufal</t>
+  </si>
+  <si>
+    <t>MovieTicketJoja_Naufal</t>
+  </si>
+  <si>
+    <t>PORTRAITS FOR VENDORS CREDITS</t>
+  </si>
+  <si>
+    <t>LS\VolcanoDwarf_Default</t>
   </si>
 </sst>
 </file>
@@ -831,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A337C04-59F4-452C-921B-80F95ACDEDD1}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -851,7 +863,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B1" s="18" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -865,7 +877,7 @@
     </row>
     <row r="3" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -873,7 +885,7 @@
     </row>
     <row r="4" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -974,7 +986,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>6</v>
@@ -986,7 +998,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>6</v>
@@ -1010,7 +1022,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>6</v>
@@ -1022,7 +1034,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>6</v>
@@ -1034,7 +1046,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>6</v>
@@ -1046,7 +1058,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>6</v>
@@ -1058,7 +1070,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>6</v>
@@ -1070,7 +1082,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>6</v>
@@ -1082,7 +1094,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>6</v>
@@ -1094,7 +1106,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>6</v>
@@ -1106,7 +1118,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>6</v>
@@ -1118,31 +1130,31 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>3</v>
+      <c r="D26" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>11</v>
+      <c r="D27" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>6</v>
@@ -1166,131 +1178,131 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>9</v>
+        <v>59</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="E31" s="4"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>11</v>
+        <v>41</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>9</v>
+        <v>58</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="4"/>
+      <c r="D34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>9</v>
+        <v>25</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>4</v>
+        <v>60</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>9</v>
+        <v>28</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>6</v>
@@ -1302,7 +1314,7 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>6</v>
@@ -1314,7 +1326,7 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>6</v>
@@ -1326,21 +1338,19 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="D43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="4"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>6</v>
@@ -1352,7 +1362,7 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>6</v>
@@ -1364,13 +1374,13 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>11</v>
@@ -1378,7 +1388,7 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>6</v>
@@ -1390,75 +1400,126 @@
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>9</v>
+        <v>65</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>9</v>
+        <v>33</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>7</v>
+        <v>34</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C51" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D55" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="10" t="s">
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25"/>
+      <c r="E56" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="B7:E52" xr:uid="{4A337C04-59F4-452C-921B-80F95ACDEDD1}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:E52">
-      <sortCondition ref="B7:B52"/>
+  <autoFilter ref="B7:E56" xr:uid="{4A337C04-59F4-452C-921B-80F95ACDEDD1}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:E56">
+      <sortCondition ref="B7:B56"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:B54">
-    <sortCondition ref="B8:B54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:B58">
+    <sortCondition ref="B8:B58"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
@@ -1466,40 +1527,33 @@
     <mergeCell ref="B3:E3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C48" r:id="rId1" display="https://www.nexusmods.com/stardewvalley/mods/3753" xr:uid="{345BDB16-9D9C-4161-AA77-6B3C5843E5CD}"/>
-    <hyperlink ref="C49" r:id="rId2" display="https://www.nexusmods.com/stardewvalley/mods/3753" xr:uid="{F4F96E07-7351-4B47-86FD-89CF75D334EA}"/>
-    <hyperlink ref="C50" r:id="rId3" display="https://www.nexusmods.com/stardewvalley/mods/3753" xr:uid="{95E22557-5EF6-40F1-83E5-0ED908273C51}"/>
+    <hyperlink ref="C52" r:id="rId1" display="https://www.nexusmods.com/stardewvalley/mods/3753" xr:uid="{345BDB16-9D9C-4161-AA77-6B3C5843E5CD}"/>
+    <hyperlink ref="C53" r:id="rId2" display="https://www.nexusmods.com/stardewvalley/mods/3753" xr:uid="{F4F96E07-7351-4B47-86FD-89CF75D334EA}"/>
+    <hyperlink ref="C54" r:id="rId3" display="https://www.nexusmods.com/stardewvalley/mods/3753" xr:uid="{95E22557-5EF6-40F1-83E5-0ED908273C51}"/>
     <hyperlink ref="D11" r:id="rId4" display="https://twitter.com/AndiasRakhman" xr:uid="{E8A8C852-C38B-4573-9381-8E05C2D55CF5}"/>
     <hyperlink ref="D12" r:id="rId5" display="https://twitter.com/AndiasRakhman" xr:uid="{D80CC328-AFF6-4F18-BA14-7C5B55CA772C}"/>
-    <hyperlink ref="D36" r:id="rId6" display="https://www.nexusmods.com/stardewvalley/users/68088657" xr:uid="{59D88D3C-69C2-469C-B58A-B17DBABA4BCA}"/>
-    <hyperlink ref="C36" r:id="rId7" display="https://www.nexusmods.com/stardewvalley/mods/6398" xr:uid="{7D3AD4D0-14D7-411F-8372-B65B457E91D1}"/>
-    <hyperlink ref="D51" r:id="rId8" display="https://www.nexusmods.com/stardewvalley/users/77325553" xr:uid="{FF583FAE-CF21-4A24-AF69-C3B9A5679743}"/>
-    <hyperlink ref="D30" r:id="rId9" display="https://www.nexusmods.com/stardewvalley/users/2679113" xr:uid="{68D94DAE-D159-4CB9-B3FE-58429AC8E7CE}"/>
-    <hyperlink ref="D33" r:id="rId10" display="https://www.nexusmods.com/stardewvalley/users/2679113" xr:uid="{17EF873F-D09D-4A8B-A34D-A0D2CD34FC3E}"/>
-    <hyperlink ref="D39" r:id="rId11" display="https://www.nexusmods.com/stardewvalley/users/2679113" xr:uid="{741BC9AA-8152-4572-9229-8B7ACD5B4245}"/>
-    <hyperlink ref="D48" r:id="rId12" display="https://www.nexusmods.com/stardewvalley/users/2679113" xr:uid="{C47A5B35-6470-4D17-BC94-6FEEC59B7531}"/>
-    <hyperlink ref="D49" r:id="rId13" display="https://www.nexusmods.com/stardewvalley/users/2679113" xr:uid="{9663B624-709D-454E-BD48-0EB227AC5F44}"/>
-    <hyperlink ref="D50" r:id="rId14" display="https://www.nexusmods.com/stardewvalley/users/2679113" xr:uid="{0BA4259C-5F6B-4EED-9222-575FED178246}"/>
-    <hyperlink ref="D43" r:id="rId15" display="https://www.nexusmods.com/stardewvalley/users/2679113" xr:uid="{03EE9D40-E951-4B20-AB8D-DFFC7044DBBB}"/>
-    <hyperlink ref="C51" r:id="rId16" display="https://www.nexusmods.com/stardewvalley/mods/14916" xr:uid="{8D435C66-17F3-4B7F-93A6-FFB0691B74C7}"/>
-    <hyperlink ref="E31" r:id="rId17" display="https://www.nexusmods.com/stardewvalley/users/2679113" xr:uid="{1A0AB9C2-2DEC-4AB4-BB2E-4C917F9B7285}"/>
-    <hyperlink ref="D35" r:id="rId18" display="https://www.nexusmods.com/stardewvalley/users/2679113" xr:uid="{5F681CDC-830C-43B4-9E92-77B7A876D199}"/>
-    <hyperlink ref="D52" r:id="rId19" xr:uid="{770B42DE-1C0F-4E30-A07F-FA0DDBC524E2}"/>
-    <hyperlink ref="D46" r:id="rId20" xr:uid="{D8E0868B-5707-484D-8C97-F18D90F8EC64}"/>
-    <hyperlink ref="D32" r:id="rId21" xr:uid="{E09E9998-6611-4086-A67E-FE0A99F68867}"/>
-    <hyperlink ref="C31" r:id="rId22" xr:uid="{484D9DA1-3F15-41F4-B689-6E58AF3D98CC}"/>
-    <hyperlink ref="C39" r:id="rId23" display="https://www.nexusmods.com/stardewvalley/mods/3753" xr:uid="{8A7D587D-1B2A-485D-A977-5BFE47B82381}"/>
-    <hyperlink ref="C35" r:id="rId24" display="https://www.nexusmods.com/stardewvalley/mods/3753" xr:uid="{B8D74AD2-CFFA-4A91-BCE6-7410CFC11512}"/>
-    <hyperlink ref="C33" r:id="rId25" display="https://www.nexusmods.com/stardewvalley/mods/3753" xr:uid="{5F151DE8-9E97-4697-BBD0-07486571E738}"/>
-    <hyperlink ref="C30" r:id="rId26" display="https://www.nexusmods.com/stardewvalley/mods/3753" xr:uid="{4E6B20C5-25F0-4BC4-9EC8-E522E1F2F928}"/>
-    <hyperlink ref="D31" r:id="rId27" xr:uid="{42965579-B521-4BFF-878F-F024FC866009}"/>
-    <hyperlink ref="D19" r:id="rId28" display="https://twitter.com/AndiasRakhman" xr:uid="{E17B9340-DAA4-4E60-BF80-8B85D57F81E7}"/>
-    <hyperlink ref="D21" r:id="rId29" display="https://twitter.com/AndiasRakhman" xr:uid="{F911FD76-C29D-443A-B31A-6197E2EA8EC5}"/>
-    <hyperlink ref="D22" r:id="rId30" display="https://twitter.com/AndiasRakhman" xr:uid="{A93C98E3-B69A-4DC3-9B6F-282FE7D11D41}"/>
-    <hyperlink ref="D24" r:id="rId31" display="https://twitter.com/AndiasRakhman" xr:uid="{90281A66-9AAC-4340-9350-F56241842143}"/>
-    <hyperlink ref="D26" r:id="rId32" display="https://twitter.com/AndiasRakhman" xr:uid="{9E739C94-8AC2-4E3A-BBFC-DF239B0DFABD}"/>
+    <hyperlink ref="D38" r:id="rId6" display="https://www.nexusmods.com/stardewvalley/users/68088657" xr:uid="{59D88D3C-69C2-469C-B58A-B17DBABA4BCA}"/>
+    <hyperlink ref="C38" r:id="rId7" display="https://www.nexusmods.com/stardewvalley/mods/6398" xr:uid="{7D3AD4D0-14D7-411F-8372-B65B457E91D1}"/>
+    <hyperlink ref="D55" r:id="rId8" display="https://www.nexusmods.com/stardewvalley/users/77325553" xr:uid="{FF583FAE-CF21-4A24-AF69-C3B9A5679743}"/>
+    <hyperlink ref="D52" r:id="rId9" display="https://www.nexusmods.com/stardewvalley/users/2679113" xr:uid="{C47A5B35-6470-4D17-BC94-6FEEC59B7531}"/>
+    <hyperlink ref="D53" r:id="rId10" display="https://www.nexusmods.com/stardewvalley/users/2679113" xr:uid="{9663B624-709D-454E-BD48-0EB227AC5F44}"/>
+    <hyperlink ref="D54" r:id="rId11" display="https://www.nexusmods.com/stardewvalley/users/2679113" xr:uid="{0BA4259C-5F6B-4EED-9222-575FED178246}"/>
+    <hyperlink ref="D46" r:id="rId12" display="https://www.nexusmods.com/stardewvalley/users/2679113" xr:uid="{03EE9D40-E951-4B20-AB8D-DFFC7044DBBB}"/>
+    <hyperlink ref="C55" r:id="rId13" display="https://www.nexusmods.com/stardewvalley/mods/14916" xr:uid="{8D435C66-17F3-4B7F-93A6-FFB0691B74C7}"/>
+    <hyperlink ref="D37" r:id="rId14" display="https://www.nexusmods.com/stardewvalley/users/2679113" xr:uid="{5F681CDC-830C-43B4-9E92-77B7A876D199}"/>
+    <hyperlink ref="D56" r:id="rId15" xr:uid="{770B42DE-1C0F-4E30-A07F-FA0DDBC524E2}"/>
+    <hyperlink ref="D50" r:id="rId16" xr:uid="{D8E0868B-5707-484D-8C97-F18D90F8EC64}"/>
+    <hyperlink ref="C37" r:id="rId17" display="https://www.nexusmods.com/stardewvalley/mods/3753" xr:uid="{B8D74AD2-CFFA-4A91-BCE6-7410CFC11512}"/>
+    <hyperlink ref="D19" r:id="rId18" display="https://twitter.com/AndiasRakhman" xr:uid="{E17B9340-DAA4-4E60-BF80-8B85D57F81E7}"/>
+    <hyperlink ref="D21" r:id="rId19" display="https://twitter.com/AndiasRakhman" xr:uid="{F911FD76-C29D-443A-B31A-6197E2EA8EC5}"/>
+    <hyperlink ref="D22" r:id="rId20" display="https://twitter.com/AndiasRakhman" xr:uid="{A93C98E3-B69A-4DC3-9B6F-282FE7D11D41}"/>
+    <hyperlink ref="D24" r:id="rId21" display="https://twitter.com/AndiasRakhman" xr:uid="{90281A66-9AAC-4340-9350-F56241842143}"/>
+    <hyperlink ref="D34" r:id="rId22" display="https://www.nexusmods.com/stardewvalley/mods/3753" xr:uid="{2E111352-E23C-4408-9B0A-EB8857D14E92}"/>
+    <hyperlink ref="D31" r:id="rId23" display="https://www.nexusmods.com/stardewvalley/users/2679113" xr:uid="{71FF429F-E212-46C1-BFD8-3312F128B841}"/>
+    <hyperlink ref="E32" r:id="rId24" display="https://twitter.com/AndiasRakhman" xr:uid="{AD854E10-72F7-4750-AC9D-EF50E585A7FE}"/>
+    <hyperlink ref="D27" r:id="rId25" display="https://twitter.com/AndiasRakhman" xr:uid="{06FCD8EB-D322-4918-86FE-668E7998B507}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId33"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>